--- a/ZeroGram02/data/data.xlsx
+++ b/ZeroGram02/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C309F-1D2D-4553-8B28-1D004F8A741E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3879A5-AE71-42EC-888A-0FC4DD6A6A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -376,6 +376,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZeroGram02/data/data.xlsx
+++ b/ZeroGram02/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3879A5-AE71-42EC-888A-0FC4DD6A6A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{462C63C6-0C6B-4465-BB67-8D6BA95D564E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -387,6 +387,17 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
